--- a/techniqo/data_new_ticker/BDL.xlsx
+++ b/techniqo/data_new_ticker/BDL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G613"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21881,6 +21881,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>317.45</v>
+      </c>
+      <c r="C614" t="n">
+        <v>319</v>
+      </c>
+      <c r="D614" t="n">
+        <v>310</v>
+      </c>
+      <c r="E614" t="n">
+        <v>311.3</v>
+      </c>
+      <c r="F614" t="n">
+        <v>767940</v>
+      </c>
+      <c r="G614" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C615" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D615" t="n">
+        <v>307.6</v>
+      </c>
+      <c r="E615" t="n">
+        <v>315.65</v>
+      </c>
+      <c r="F615" t="n">
+        <v>662183</v>
+      </c>
+      <c r="G615" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/BDL.xlsx
+++ b/techniqo/data_new_ticker/BDL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G615"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21931,6 +21931,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>314</v>
+      </c>
+      <c r="C616" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="D616" t="n">
+        <v>311.3</v>
+      </c>
+      <c r="E616" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="F616" t="n">
+        <v>325731</v>
+      </c>
+      <c r="G616" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>314.55</v>
+      </c>
+      <c r="C617" t="n">
+        <v>319.95</v>
+      </c>
+      <c r="D617" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="E617" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="F617" t="n">
+        <v>558204</v>
+      </c>
+      <c r="G617" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
